--- a/John_Vtiger_Pages_Webelements.xlsx
+++ b/John_Vtiger_Pages_Webelements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qspiders\TYSS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qspiders\TYSS\TYSS_Docs\VTigerAppDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CCAA09-5BAE-4BA3-979B-A38F1D38F49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF189F17-865F-4261-B677-4028D88E4A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B7C09BB1-9FF8-44BB-94B7-B000183B1A28}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/John_Vtiger_Pages_Webelements.xlsx
+++ b/John_Vtiger_Pages_Webelements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qspiders\TYSS\TYSS_Docs\VTigerAppDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF189F17-865F-4261-B677-4028D88E4A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20795224-FD5E-450D-8AF7-4E6B81CAB642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B7C09BB1-9FF8-44BB-94B7-B000183B1A28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Sr No.</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>Attribute_Value</t>
+  </si>
+  <si>
+    <t>Home_Page</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Master_Page</t>
+  </si>
+  <si>
+    <t>Contacts-Xpath</t>
+  </si>
+  <si>
+    <t>//a[.='Contacts']</t>
   </si>
 </sst>
 </file>
@@ -55,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,6 +80,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,10 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76126BC1-9BD0-4D9F-8A78-6D96748076B8}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,155 +469,212 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
